--- a/salary-benchmark/salary-benchmark-cleaned.xlsx
+++ b/salary-benchmark/salary-benchmark-cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iman\project-folder\salary-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iman\project\salary-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC17681-8E7E-4488-9BCD-63426E1597D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5921E1F-027B-4180-8C77-821B3B386511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{324F3EB8-C317-4157-BCAC-A2490C91CC22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{324F3EB8-C317-4157-BCAC-A2490C91CC22}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Set" sheetId="2" r:id="rId1"/>
@@ -1609,13 +1609,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{377D645E-9D88-409C-B677-31F9CA7A78A8}" name="Table_03" displayName="Table_03" ref="A1:F647" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F647" xr:uid="{377D645E-9D88-409C-B677-31F9CA7A78A8}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F647" xr:uid="{377D645E-9D88-409C-B677-31F9CA7A78A8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D4C368A9-D8A7-4856-B412-DC547062E332}" uniqueName="1" name="Age" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{6D398A49-22FA-4372-87F7-EC571E119B63}" uniqueName="2" name="Position" queryTableFieldId="2" dataDxfId="3"/>
@@ -14192,7 +14186,7 @@
   <dimension ref="A1:F647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14345,7 +14339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>23</v>
       </c>
@@ -14403,7 +14397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32</v>
       </c>
@@ -14441,7 +14435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28</v>
       </c>
@@ -14499,7 +14493,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>29</v>
       </c>
@@ -14517,7 +14511,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>30</v>
       </c>
@@ -14595,7 +14589,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -14653,7 +14647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -14731,7 +14725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -14749,7 +14743,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -14907,7 +14901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>26</v>
       </c>
@@ -14945,7 +14939,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>28</v>
       </c>
@@ -14963,7 +14957,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>29</v>
       </c>
@@ -15061,7 +15055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24</v>
       </c>
@@ -15099,7 +15093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>27</v>
       </c>
@@ -15117,7 +15111,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>27</v>
       </c>
@@ -15135,7 +15129,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>29</v>
       </c>
@@ -15173,7 +15167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>21</v>
       </c>
@@ -15191,7 +15185,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>25</v>
       </c>
@@ -15229,7 +15223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>29</v>
       </c>
@@ -15247,7 +15241,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -15305,7 +15299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>23</v>
       </c>
@@ -15323,7 +15317,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>23</v>
       </c>
@@ -15341,7 +15335,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24</v>
       </c>
@@ -15459,7 +15453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>28</v>
       </c>
@@ -15477,7 +15471,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>30</v>
       </c>
@@ -15495,7 +15489,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>36</v>
       </c>
@@ -15513,7 +15507,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>40</v>
       </c>
@@ -15571,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>28</v>
       </c>
@@ -15649,7 +15643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>32</v>
       </c>
@@ -15667,7 +15661,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>26</v>
       </c>
@@ -15685,7 +15679,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>24</v>
       </c>
@@ -15703,7 +15697,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>25</v>
       </c>
@@ -15721,7 +15715,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>27</v>
       </c>
@@ -15839,7 +15833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>24</v>
       </c>
@@ -15897,7 +15891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>25</v>
       </c>
@@ -15915,7 +15909,7 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>26</v>
       </c>
@@ -15933,7 +15927,7 @@
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>27</v>
       </c>
@@ -15951,7 +15945,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27</v>
       </c>
@@ -16109,7 +16103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>36</v>
       </c>
@@ -16127,7 +16121,7 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>44</v>
       </c>
@@ -16185,7 +16179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>23</v>
       </c>
@@ -16203,7 +16197,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>23</v>
       </c>
@@ -16221,7 +16215,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>25</v>
       </c>
@@ -16239,7 +16233,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>26</v>
       </c>
@@ -16257,7 +16251,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>28</v>
       </c>
@@ -16275,7 +16269,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>28</v>
       </c>
@@ -16313,7 +16307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>24</v>
       </c>
@@ -16431,7 +16425,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>26</v>
       </c>
@@ -16449,7 +16443,7 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>28</v>
       </c>
@@ -16467,7 +16461,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>29</v>
       </c>
@@ -16485,7 +16479,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>29</v>
       </c>
@@ -16523,7 +16517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>30</v>
       </c>
@@ -16601,7 +16595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>33</v>
       </c>
@@ -16639,7 +16633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>35</v>
       </c>
@@ -16717,7 +16711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>34</v>
       </c>
@@ -16735,7 +16729,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>34</v>
       </c>
@@ -16753,7 +16747,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>23</v>
       </c>
@@ -16811,7 +16805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>27</v>
       </c>
@@ -16869,7 +16863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>31</v>
       </c>
@@ -16907,7 +16901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>23</v>
       </c>
@@ -16985,7 +16979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>26</v>
       </c>
@@ -17023,7 +17017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>26</v>
       </c>
@@ -17161,7 +17155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>33</v>
       </c>
@@ -17179,7 +17173,7 @@
       </c>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33</v>
       </c>
@@ -17217,7 +17211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>25</v>
       </c>
@@ -17255,7 +17249,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>29</v>
       </c>
@@ -17273,7 +17267,7 @@
       </c>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>23</v>
       </c>
@@ -17291,7 +17285,7 @@
       </c>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>25</v>
       </c>
@@ -17329,7 +17323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>26</v>
       </c>
@@ -17367,7 +17361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>28</v>
       </c>
@@ -17465,7 +17459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>34</v>
       </c>
@@ -17483,7 +17477,7 @@
       </c>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>35</v>
       </c>
@@ -17501,7 +17495,7 @@
       </c>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>25</v>
       </c>
@@ -17559,7 +17553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>27</v>
       </c>
@@ -17737,7 +17731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>23</v>
       </c>
@@ -17775,7 +17769,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>24</v>
       </c>
@@ -17793,7 +17787,7 @@
       </c>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>24</v>
       </c>
@@ -17851,7 +17845,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>25</v>
       </c>
@@ -17869,7 +17863,7 @@
       </c>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>25</v>
       </c>
@@ -18047,7 +18041,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>27</v>
       </c>
@@ -18065,7 +18059,7 @@
       </c>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>27</v>
       </c>
@@ -18083,7 +18077,7 @@
       </c>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>27</v>
       </c>
@@ -18141,7 +18135,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>28</v>
       </c>
@@ -18219,7 +18213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>30</v>
       </c>
@@ -18237,7 +18231,7 @@
       </c>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>31</v>
       </c>
@@ -18315,7 +18309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>38</v>
       </c>
@@ -18433,7 +18427,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>36</v>
       </c>
@@ -18511,7 +18505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>27</v>
       </c>
@@ -18549,7 +18543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>34</v>
       </c>
@@ -18607,7 +18601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>26</v>
       </c>
@@ -18645,7 +18639,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>28</v>
       </c>
@@ -18703,7 +18697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>27</v>
       </c>
@@ -18801,7 +18795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>25</v>
       </c>
@@ -18879,7 +18873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>27</v>
       </c>
@@ -18897,7 +18891,7 @@
       </c>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>27</v>
       </c>
@@ -18935,7 +18929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>28</v>
       </c>
@@ -18953,7 +18947,7 @@
       </c>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>28</v>
       </c>
@@ -18971,7 +18965,7 @@
       </c>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>28</v>
       </c>
@@ -19089,7 +19083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>29</v>
       </c>
@@ -19107,7 +19101,7 @@
       </c>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>29</v>
       </c>
@@ -19165,7 +19159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>31</v>
       </c>
@@ -19183,7 +19177,7 @@
       </c>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>31</v>
       </c>
@@ -19281,7 +19275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>32</v>
       </c>
@@ -19319,7 +19313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>37</v>
       </c>
@@ -19417,7 +19411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>26</v>
       </c>
@@ -19435,7 +19429,7 @@
       </c>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>31</v>
       </c>
@@ -19493,7 +19487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>26</v>
       </c>
@@ -19531,7 +19525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>36</v>
       </c>
@@ -19549,7 +19543,7 @@
       </c>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>28</v>
       </c>
@@ -19607,7 +19601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>28</v>
       </c>
@@ -19685,7 +19679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>36</v>
       </c>
@@ -19703,7 +19697,7 @@
       </c>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>40</v>
       </c>
@@ -19721,7 +19715,7 @@
       </c>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>41</v>
       </c>
@@ -19899,7 +19893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>26</v>
       </c>
@@ -19917,7 +19911,7 @@
       </c>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>26</v>
       </c>
@@ -19935,7 +19929,7 @@
       </c>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>26</v>
       </c>
@@ -19993,7 +19987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>27</v>
       </c>
@@ -20051,7 +20045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>28</v>
       </c>
@@ -20109,7 +20103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>30</v>
       </c>
@@ -20127,7 +20121,7 @@
       </c>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>34</v>
       </c>
@@ -20165,7 +20159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>36</v>
       </c>
@@ -20203,7 +20197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>36</v>
       </c>
@@ -20221,7 +20215,7 @@
       </c>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>27</v>
       </c>
@@ -20279,7 +20273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>32</v>
       </c>
@@ -20317,7 +20311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>29</v>
       </c>
@@ -20355,7 +20349,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>30</v>
       </c>
@@ -20373,7 +20367,7 @@
       </c>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>30</v>
       </c>
@@ -20391,7 +20385,7 @@
       </c>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>27</v>
       </c>
@@ -20449,7 +20443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>29</v>
       </c>
@@ -20507,7 +20501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>30</v>
       </c>
@@ -20565,7 +20559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>31</v>
       </c>
@@ -20783,7 +20777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>27</v>
       </c>
@@ -20801,7 +20795,7 @@
       </c>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>29</v>
       </c>
@@ -20859,7 +20853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>30</v>
       </c>
@@ -20877,7 +20871,7 @@
       </c>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>30</v>
       </c>
@@ -20915,7 +20909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>31</v>
       </c>
@@ -20933,7 +20927,7 @@
       </c>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>31</v>
       </c>
@@ -20951,7 +20945,7 @@
       </c>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>32</v>
       </c>
@@ -20969,7 +20963,7 @@
       </c>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>32</v>
       </c>
@@ -21007,7 +21001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>33</v>
       </c>
@@ -21025,7 +21019,7 @@
       </c>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>34</v>
       </c>
@@ -21083,7 +21077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>38</v>
       </c>
@@ -21101,7 +21095,7 @@
       </c>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>29</v>
       </c>
@@ -21119,7 +21113,7 @@
       </c>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>37</v>
       </c>
@@ -21137,7 +21131,7 @@
       </c>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>44</v>
       </c>
@@ -21155,7 +21149,7 @@
       </c>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>28</v>
       </c>
@@ -21173,7 +21167,7 @@
       </c>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>31</v>
       </c>
@@ -21231,7 +21225,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>27</v>
       </c>
@@ -21329,7 +21323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>30</v>
       </c>
@@ -21387,7 +21381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>40</v>
       </c>
@@ -21425,7 +21419,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>32</v>
       </c>
@@ -21443,7 +21437,7 @@
       </c>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>27</v>
       </c>
@@ -21521,7 +21515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>27</v>
       </c>
@@ -21539,7 +21533,7 @@
       </c>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>28</v>
       </c>
@@ -21557,7 +21551,7 @@
       </c>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>28</v>
       </c>
@@ -21595,7 +21589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>30</v>
       </c>
@@ -21613,7 +21607,7 @@
       </c>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>37</v>
       </c>
@@ -21651,7 +21645,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>27</v>
       </c>
@@ -21849,7 +21843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>29</v>
       </c>
@@ -21867,7 +21861,7 @@
       </c>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>30</v>
       </c>
@@ -21925,7 +21919,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>34</v>
       </c>
@@ -21983,7 +21977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>26</v>
       </c>
@@ -22001,7 +21995,7 @@
       </c>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>27</v>
       </c>
@@ -22079,7 +22073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>28</v>
       </c>
@@ -22157,7 +22151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>29</v>
       </c>
@@ -22195,7 +22189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>30</v>
       </c>
@@ -22233,7 +22227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>32</v>
       </c>
@@ -22311,7 +22305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>27</v>
       </c>
@@ -22329,7 +22323,7 @@
       </c>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>40</v>
       </c>
@@ -22367,7 +22361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>33</v>
       </c>
@@ -22425,7 +22419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>31</v>
       </c>
@@ -22443,7 +22437,7 @@
       </c>
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>28</v>
       </c>
@@ -22521,7 +22515,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>38</v>
       </c>
@@ -22579,7 +22573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>35</v>
       </c>
@@ -22597,7 +22591,7 @@
       </c>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>39</v>
       </c>
@@ -22635,7 +22629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>20</v>
       </c>
@@ -22693,7 +22687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>29</v>
       </c>
@@ -22751,7 +22745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>30</v>
       </c>
@@ -22809,7 +22803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>33</v>
       </c>
@@ -22827,7 +22821,7 @@
       </c>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>33</v>
       </c>
@@ -22965,7 +22959,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>42</v>
       </c>
@@ -23003,7 +22997,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>52</v>
       </c>
@@ -23021,7 +23015,7 @@
       </c>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>27</v>
       </c>
@@ -23179,7 +23173,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>40</v>
       </c>
@@ -23257,7 +23251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>28</v>
       </c>
@@ -23275,7 +23269,7 @@
       </c>
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>28</v>
       </c>
@@ -23293,7 +23287,7 @@
       </c>
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>30</v>
       </c>
@@ -23311,7 +23305,7 @@
       </c>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>33</v>
       </c>
@@ -23369,7 +23363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>35</v>
       </c>
@@ -23427,7 +23421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>44</v>
       </c>
@@ -23565,7 +23559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>26</v>
       </c>
@@ -23583,7 +23577,7 @@
       </c>
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>27</v>
       </c>
@@ -23661,7 +23655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>31</v>
       </c>
@@ -23699,7 +23693,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>35</v>
       </c>
@@ -23717,7 +23711,7 @@
       </c>
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>37</v>
       </c>
@@ -23775,7 +23769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>32</v>
       </c>
@@ -23793,7 +23787,7 @@
       </c>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>39</v>
       </c>
@@ -23811,7 +23805,7 @@
       </c>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>27</v>
       </c>
@@ -23829,7 +23823,7 @@
       </c>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>28</v>
       </c>
@@ -23887,7 +23881,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>39</v>
       </c>
@@ -23985,7 +23979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>41</v>
       </c>
@@ -24043,7 +24037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>32</v>
       </c>
@@ -24101,7 +24095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>28</v>
       </c>
@@ -24139,7 +24133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>32</v>
       </c>
@@ -24177,7 +24171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>38</v>
       </c>
@@ -24315,7 +24309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>38</v>
       </c>
@@ -24333,7 +24327,7 @@
       </c>
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>36</v>
       </c>
@@ -24391,7 +24385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>35</v>
       </c>
@@ -24409,7 +24403,7 @@
       </c>
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>43</v>
       </c>
@@ -24467,7 +24461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>27</v>
       </c>
@@ -24565,7 +24559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>30</v>
       </c>
@@ -24583,7 +24577,7 @@
       </c>
       <c r="F540" s="1"/>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>31</v>
       </c>
@@ -24641,7 +24635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>30</v>
       </c>
@@ -24659,7 +24653,7 @@
       </c>
       <c r="F544" s="1"/>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>39</v>
       </c>
@@ -24717,7 +24711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>27</v>
       </c>
@@ -24775,7 +24769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>35</v>
       </c>
@@ -24793,7 +24787,7 @@
       </c>
       <c r="F551" s="1"/>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>41</v>
       </c>
@@ -24811,7 +24805,7 @@
       </c>
       <c r="F552" s="1"/>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>31</v>
       </c>
@@ -24849,7 +24843,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>31</v>
       </c>
@@ -24867,7 +24861,7 @@
       </c>
       <c r="F555" s="1"/>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>37</v>
       </c>
@@ -24905,7 +24899,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>40</v>
       </c>
@@ -24983,7 +24977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>30</v>
       </c>
@@ -25081,7 +25075,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>40</v>
       </c>
@@ -25119,7 +25113,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>40</v>
       </c>
@@ -25177,7 +25171,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>38</v>
       </c>
@@ -25195,7 +25189,7 @@
       </c>
       <c r="F572" s="1"/>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>38</v>
       </c>
@@ -25213,7 +25207,7 @@
       </c>
       <c r="F573" s="1"/>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>36</v>
       </c>
@@ -25291,7 +25285,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>39</v>
       </c>
@@ -25369,7 +25363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>35</v>
       </c>
@@ -25407,7 +25401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>40</v>
       </c>
@@ -25445,7 +25439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>36</v>
       </c>
@@ -25503,7 +25497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>41</v>
       </c>
@@ -25521,7 +25515,7 @@
       </c>
       <c r="F589" s="1"/>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>35</v>
       </c>
@@ -25579,7 +25573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>37</v>
       </c>
@@ -25597,7 +25591,7 @@
       </c>
       <c r="F593" s="1"/>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>41</v>
       </c>
